--- a/data/income_statement/2digits/total/35_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/35_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>35-Electricity, gas, steam and air conditioning supply</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>35-Electricity, gas, steam and air conditioning supply</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,95 +841,110 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>78834740.69341004</v>
+        <v>78834740.69340998</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>86658725.50908002</v>
+        <v>86658725.50908001</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>98788812.07221998</v>
+        <v>98788812.07222001</v>
       </c>
       <c r="F5" s="47" t="n">
         <v>125108373.33781</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>159798628.14675</v>
+        <v>161046119.04877</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>182931379.09396</v>
+        <v>185308378.45796</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>192827363.07616</v>
+        <v>207434711.00651</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>219906125.75251</v>
+        <v>219927486.30029</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>238891765.16128</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>308032250.7188901</v>
+        <v>308051972.51189</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>380463250.00711</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>380831933.0597601</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>456195999.921</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>70891451.37261002</v>
+        <v>70891451.37260999</v>
       </c>
       <c r="D6" s="48" t="n">
         <v>77864810.99109</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>88133619.27273999</v>
+        <v>88133619.27274001</v>
       </c>
       <c r="F6" s="48" t="n">
         <v>110549012.05825</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>143615181.42187</v>
+        <v>144862441.81542</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>159460487.42844</v>
+        <v>161836450.84753</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>172180174.63898</v>
+        <v>186617344.99256</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>212302584.97209</v>
+        <v>212323653.12306</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>232221948.0313</v>
+        <v>232221948.0312999</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>298742802.8554</v>
+        <v>298762305.5959199</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>368070968.1608601</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>368439351.2866899</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>442676053.855</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>373326.4798799999</v>
+        <v>373326.47988</v>
       </c>
       <c r="D7" s="48" t="n">
         <v>1264817.24355</v>
@@ -1043,10 +959,10 @@
         <v>988316.44921</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1412335.8339</v>
+        <v>1412377.4667</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1050258.56631</v>
+        <v>1196661.20336</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>1399488.18323</v>
@@ -1058,58 +974,68 @@
         <v>2020622.44393</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>2511138.55819</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2509771.30067</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>2513235.431</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>7569962.840920001</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>7529097.27444</v>
+        <v>7529097.274440001</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>9524857.024020003</v>
+        <v>9524857.024020001</v>
       </c>
       <c r="F8" s="48" t="n">
         <v>13543319.50805</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>15195130.27567</v>
+        <v>15195360.78414</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>22058555.83162</v>
+        <v>22059550.14373</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>19596929.87087</v>
+        <v>19620704.81059</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>6204052.59719</v>
+        <v>6204344.994</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>4939313.536440002</v>
+        <v>4939313.53644</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>7268825.419559999</v>
+        <v>7269044.47204</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>9881143.288060002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>9882810.4724</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>11006710.635</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>2215133.36319</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>922103.05235</v>
+        <v>922103.0523500002</v>
       </c>
       <c r="E9" s="47" t="n">
         <v>1249382.23686</v>
@@ -1118,31 +1044,36 @@
         <v>1497090.6546</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>7189895.943019999</v>
+        <v>7336706.64275</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>8679563.819979999</v>
+        <v>8801163.351820001</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>12587530.92704</v>
+        <v>13052628.76081</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>25915000.24789</v>
+        <v>25915471.9174</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>19879386.43585</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>26749604.27156</v>
+        <v>26749607.12156</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>35282547.88105001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>35282781.68829</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>39748896.813</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>2131192.82184</v>
@@ -1151,46 +1082,51 @@
         <v>757184.03908</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>720373.0328399999</v>
+        <v>720373.03284</v>
       </c>
       <c r="F10" s="48" t="n">
         <v>769006.28152</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>1534071.43291</v>
+        <v>1680882.13264</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>1487499.42067</v>
+        <v>1607515.02544</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>1657724.90087</v>
+        <v>2111853.74639</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>9945140.870610002</v>
+        <v>9945142.712440001</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>2744252.242400001</v>
+        <v>2744252.242399999</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>3067550.75685</v>
+        <v>3067553.60685</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>3444655.22517</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>3444881.61493</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>5202359.124</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>38422.6574</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>82636.79367999999</v>
+        <v>82636.79368</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>67967.54630999999</v>
+        <v>67967.54631000001</v>
       </c>
       <c r="F11" s="48" t="n">
         <v>31401.87156</v>
@@ -1202,10 +1138,10 @@
         <v>17664.72972</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>31277.57772</v>
+        <v>31355.71644</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>99570.96863</v>
+        <v>99570.96862999997</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>175469.31463</v>
@@ -1216,20 +1152,25 @@
       <c r="M11" s="48" t="n">
         <v>273183.20043</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>171867.416</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>45517.88395</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>82282.21958999999</v>
+        <v>82282.21959000001</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>461041.65771</v>
+        <v>461041.6577100001</v>
       </c>
       <c r="F12" s="48" t="n">
         <v>696682.5015199999</v>
@@ -1238,13 +1179,13 @@
         <v>5644102.90399</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>7174399.669589999</v>
+        <v>7175983.59666</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>10898528.44845</v>
+        <v>10909419.29798</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>15870288.40865</v>
+        <v>15870758.23633</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>16959664.87882</v>
@@ -1253,19 +1194,24 @@
         <v>23429151.05409</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>31564709.45545</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>31564716.87293</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>34374670.273</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>76619607.33022</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>85736622.45672998</v>
+        <v>85736622.45672999</v>
       </c>
       <c r="E13" s="47" t="n">
         <v>97539429.83536001</v>
@@ -1274,70 +1220,80 @@
         <v>123611282.68321</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>152608732.20373</v>
+        <v>153709412.40602</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>174251815.27398</v>
+        <v>176507215.10614</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>180239832.14912</v>
+        <v>194382082.2457</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>193991125.50462</v>
+        <v>194012014.38289</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>219012378.72543</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>281282646.4473299</v>
+        <v>281302365.39033</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>345180702.1260599</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>345549151.37147</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>416447103.108</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>66697117.83532999</v>
+        <v>66697117.83533</v>
       </c>
       <c r="D14" s="47" t="n">
         <v>73148982.99612001</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>87487703.79238002</v>
+        <v>87487703.79237999</v>
       </c>
       <c r="F14" s="47" t="n">
         <v>111848136.6228</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>140076133.30082</v>
+        <v>141160195.75718</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>163736002.89058</v>
+        <v>165958179.52919</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>163196254.8961</v>
+        <v>175056388.2125</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>166607881.41901</v>
+        <v>166623579.90311</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>192987533.84752</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>247535053.79148</v>
+        <v>247551871.77208</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>283656890.7530001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>283890830.91683</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>342546005.042</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>12985340.46913</v>
@@ -1352,31 +1308,36 @@
         <v>22611863.75457</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>23102313.58716</v>
+        <v>23207350.7527</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>34838824.98903</v>
+        <v>35272795.60521</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>19809115.58688</v>
+        <v>27262280.42849</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>28922361.13208</v>
+        <v>28937361.91043</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>37756395.38731999</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>50415854.11635</v>
+        <v>50426424.41266</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>56507240.92932</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>56549597.87088999</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>65525640.906</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>40806744.0801</v>
@@ -1385,79 +1346,89 @@
         <v>46126255.92453</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>52071132.69377999</v>
+        <v>52071132.69378</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>63971166.56615</v>
+        <v>63971166.56614999</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>67126016.62687999</v>
+        <v>68105041.91769999</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>71227230.65107</v>
+        <v>73012038.58616</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>107890989.38531</v>
+        <v>111918909.56861</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>116094074.426</v>
+        <v>116094121.4639</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>130549504.43441</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>154226569.29769</v>
+        <v>154229682.55226</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>192192979.89115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>192369683.48411</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>232539204.927</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>5560515.20486</v>
+        <v>5560515.204860001</v>
       </c>
       <c r="D17" s="48" t="n">
         <v>6077465.240329999</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>8824667.827030001</v>
+        <v>8824667.827029999</v>
       </c>
       <c r="F17" s="48" t="n">
         <v>12561210.80539</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>36343455.22562999</v>
+        <v>36343455.22563</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>37641478.00491999</v>
+        <v>37644866.09226</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>18345284.7271</v>
+        <v>18714805.94139</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>20859134.4839</v>
+        <v>20859774.98225</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>24252563.15908</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>38998821.76193</v>
+        <v>39001953.09165</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>28953438.56755</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>28967857.32116</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>38784014.287</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>7344518.08124</v>
+        <v>7344518.081239999</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>7275786.73992</v>
@@ -1472,28 +1443,33 @@
         <v>13504347.86115</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>20028469.24556</v>
+        <v>20028479.24556</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>17150865.19681</v>
+        <v>17160392.27401</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>732311.37703</v>
+        <v>732321.5465299999</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>429070.8667100001</v>
+        <v>429070.86671</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>3893808.61551</v>
+        <v>3893811.71551</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>6003231.36498</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>6003692.240670001</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>5697144.922</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>9922489.494889999</v>
@@ -1508,70 +1484,80 @@
         <v>11763146.06041</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>12532598.90291</v>
+        <v>12549216.64884</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>10515812.3834</v>
+        <v>10549035.57695</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>17043577.25302</v>
+        <v>19325694.0332</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>27383244.08561</v>
+        <v>27388434.47978</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>26024844.87791</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>33747592.65585</v>
+        <v>33750493.61825</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>61523811.37306001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>61658320.45464</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>73901098.066</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>4465270.354919999</v>
+        <v>4465270.35492</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>4987463.737070001</v>
+        <v>4987463.73707</v>
       </c>
       <c r="E20" s="47" t="n">
         <v>6002384.198860001</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>6570544.0675</v>
+        <v>6570994.14376</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>6128492.428160001</v>
+        <v>6164300.72895</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>7067657.216449999</v>
+        <v>7129066.934400002</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>7887627.40418</v>
+        <v>8458809.563589999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>9451411.620719999</v>
+        <v>9462659.710380001</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>10585140.04261</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>11358230.91883</v>
+        <v>11362179.34424</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>13865513.50232</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>13907655.12146</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>15275668.408</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>17690.64684</v>
@@ -1586,16 +1572,16 @@
         <v>29194.74048</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>21218.50336</v>
+        <v>21700.22994</v>
       </c>
       <c r="H21" s="48" t="n">
         <v>33473.55061999999</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>47946.58558</v>
+        <v>50599.90098999999</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>53136.06722999999</v>
+        <v>53136.06723</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>70229.25497999998</v>
@@ -1606,50 +1592,60 @@
       <c r="M21" s="48" t="n">
         <v>70248.06462999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>46352.005</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>2583582.71678</v>
+        <v>2583582.716779999</v>
       </c>
       <c r="D22" s="48" t="n">
         <v>2728827.09236</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>3327201.97439</v>
+        <v>3327201.974389999</v>
       </c>
       <c r="F22" s="48" t="n">
         <v>3510413.58207</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>2666905.36833</v>
+        <v>2692171.34049</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>3309392.79571</v>
+        <v>3354585.86495</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>3350873.918139999</v>
+        <v>3417944.88039</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>3769788.22248</v>
+        <v>3769974.45254</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>4320667.04787</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>3871225.048289999</v>
+        <v>3871339.44242</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>4355423.08507</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>4358573.7605</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>5361457.051</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>1863996.9913</v>
@@ -1658,37 +1654,42 @@
         <v>2242767.66488</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>2661206.092909999</v>
+        <v>2661206.09291</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>3030935.74495</v>
+        <v>3031385.82121</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>3440368.55647</v>
+        <v>3450429.15852</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>3724790.87012</v>
+        <v>3741007.51883</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>4488806.90046</v>
+        <v>4990264.78221</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>5628487.33101</v>
+        <v>5639549.190610002</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>6194243.739759999</v>
+        <v>6194243.73976</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>7424679.514679998</v>
+        <v>7428513.545959999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>9439842.35262</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>9478833.296329999</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>9867859.352</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>5457219.139969999</v>
@@ -1697,40 +1698,45 @@
         <v>7600175.72354</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>4049341.844120001</v>
+        <v>4049341.84412</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>5192601.992909999</v>
+        <v>5192151.91665</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>6404106.47475</v>
+        <v>6384915.91989</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>3448155.16695</v>
+        <v>3419968.64255</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>9155949.84884</v>
+        <v>10866884.46961</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>17931832.46489</v>
+        <v>17925774.7694</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>15439704.8353</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>22389361.73702</v>
+        <v>22388314.27401</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>47658297.87074</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>47750665.33318</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>58625429.658</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>6912390.757540001</v>
+        <v>6912390.75754</v>
       </c>
       <c r="D25" s="47" t="n">
         <v>8489646.314449999</v>
@@ -1739,37 +1745,42 @@
         <v>10972736.7983</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>11646521.60167</v>
+        <v>11647167.99241</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>14753958.19564</v>
+        <v>14823296.69035</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>17649987.13489</v>
+        <v>17728567.09942</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>20351436.31369</v>
+        <v>21770136.68539</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>23903865.60767</v>
+        <v>23923251.2031</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>34442727.48864001</v>
+        <v>34442727.48864</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>80929972.09277999</v>
+        <v>80931196.60104001</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>50347478.48123001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>50388582.85728</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>70348100.097</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>77090.08454</v>
+        <v>77090.08454000001</v>
       </c>
       <c r="D26" s="48" t="n">
         <v>239838.92819</v>
@@ -1787,25 +1798,30 @@
         <v>191633.16325</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>193679.624</v>
+        <v>233933.13187</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>364237.03484</v>
+        <v>364284.57141</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>715845.19117</v>
+        <v>715845.1911700001</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>1085142.38908</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>845041.9550399999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>845050.3905399999</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>1026085.874</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>274792.66666</v>
@@ -1823,10 +1839,10 @@
         <v>1087678.58808</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>838550.5469899999</v>
+        <v>838550.5469900001</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>870900.02533</v>
+        <v>1155560.39622</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>1888527.4751</v>
@@ -1838,52 +1854,62 @@
         <v>6929496.058809999</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>4041398.270820001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>4041398.27082</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>4471114.063</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>494878.0220299999</v>
+        <v>494878.02203</v>
       </c>
       <c r="D28" s="48" t="n">
         <v>631472.0467599999</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>894967.5369700001</v>
+        <v>894967.53697</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>1223096.32175</v>
+        <v>1223727.33526</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>1633645.77589</v>
+        <v>1634763.15883</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>1978582.60783</v>
+        <v>1990706.20773</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>2162158.904</v>
+        <v>2357056.99723</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>2730617.77297</v>
+        <v>2735985.33297</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>3814519.43747</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>6239888.36059</v>
+        <v>6240238.64948</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>7841651.22294</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>7842479.58488</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>6910043.362</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>4287.58821</v>
@@ -1901,10 +1927,10 @@
         <v>5265.10826</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>4866.041409999999</v>
+        <v>4866.04141</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>6023.990289999999</v>
+        <v>6023.99029</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>2757.49856</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>20403.45108</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>38354.242</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>242384.76931</v>
@@ -1934,19 +1965,19 @@
         <v>1493112.10499</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>427078.5424500001</v>
+        <v>427078.54245</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>505009.93201</v>
+        <v>506080.1464199999</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>659374.8284300001</v>
+        <v>674308.03645</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>833783.9609699999</v>
+        <v>855355.40914</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>1013455.3985</v>
+        <v>1019989.07733</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>950515.1802699999</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>1938219.35669</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>1667194.079</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>3211.99245</v>
@@ -1973,34 +2009,39 @@
         <v>27095.2508</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>44374.08030999999</v>
+        <v>44374.08031</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>33444.65105</v>
+        <v>33528.12429</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>42073.18687999999</v>
+        <v>43146.06453</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>16924.07818</v>
+        <v>16988.54558</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>104560.57776</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>639808.5832699999</v>
+        <v>639808.5832700001</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>689488.03887</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>1398957.27413</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1398967.49519</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>614556.3149999999</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>2469236.77233</v>
@@ -2012,37 +2053,42 @@
         <v>3607129.22</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>4448706.660279999</v>
+        <v>4448722.03125</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>5314707.370470001</v>
+        <v>5315275.173529999</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>8155909.77436</v>
+        <v>8161738.176739999</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>9384350.592190001</v>
+        <v>10080599.12995</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>10852230.46583</v>
+        <v>10859129.03591</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>17925569.83782</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>52956560.64774</v>
+        <v>52957440.56398</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>22433869.67159001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>22472659.16027</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>37311304.349</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>6219.002509999999</v>
+        <v>6219.00251</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>6017.87729</v>
@@ -2054,10 +2100,10 @@
         <v>1006.72373</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>2613.161090000001</v>
+        <v>2613.16109</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>82.26368000000001</v>
+        <v>82.26367999999999</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>39.53968999999999</v>
@@ -2066,7 +2112,7 @@
         <v>393.05738</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>856.59358</v>
+        <v>856.5935800000001</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>50154.08621000001</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>24.06017</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>4478124.622</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>102.76674</v>
@@ -2113,89 +2164,104 @@
       <c r="M34" s="48" t="n">
         <v>0.00714</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0.792</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>3340187.09276</v>
+        <v>3340187.092760001</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>3535867.85695</v>
+        <v>3535867.856949999</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>4061040.67012</v>
+        <v>4061040.670120001</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>4220914.40576</v>
+        <v>4220914.41202</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>5948764.97939</v>
+        <v>6015264.600450001</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>5778896.815249999</v>
+        <v>5823518.69183</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>6883515.66388</v>
+        <v>7064519.61026</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>6947086.326729999</v>
+        <v>6947624.57668</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>7087478.78247</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>11806072.03706</v>
+        <v>11806066.34019</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>11827913.21163</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>11829381.0805</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>13831322.399</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>5254450.586949999</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>5021301.829790001</v>
+        <v>5021301.829789999</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>8293556.409450001</v>
+        <v>8293556.409449999</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>6330139.26401</v>
+        <v>6330180.181310001</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>15800781.30129</v>
+        <v>15877429.1639</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>14804541.32941</v>
+        <v>14917471.72275</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>23341670.19005</v>
+        <v>24925526.84532</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>27906847.33511</v>
+        <v>27911900.9748</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>29252349.07791</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>84741502.69282</v>
+        <v>84745698.20898001</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>44315801.01979001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>44392066.0642</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>76411370.751</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>3456.67268</v>
@@ -2210,16 +2276,16 @@
         <v>3489.78686</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>11276.58752</v>
+        <v>11328.70552</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>3002.2638</v>
+        <v>3016.56227</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>23548.25357</v>
+        <v>24107.69628</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>16395.39646</v>
+        <v>16404.47809</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>12108.35387</v>
@@ -2228,37 +2294,42 @@
         <v>32079.31312</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>27377.32488</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>27403.5678</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>20375.792</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>749681.44608</v>
+        <v>749681.4460800001</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>1335533.38755</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>704673.8992499999</v>
+        <v>704673.89925</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>896962.77192</v>
+        <v>896962.7719200001</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>1501273.83885</v>
+        <v>1577111.44278</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>868071.9413000001</v>
+        <v>974107.353</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>807518.43347</v>
+        <v>891047.60817</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>1466331.79906</v>
+        <v>1466431.21766</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>1646523.56115</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>3371675.24416</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>4447827.689</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>58.25680000000001</v>
@@ -2291,28 +2367,33 @@
         <v>2040.86571</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>3423.16178</v>
+        <v>3544.27799</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>9050.326070000001</v>
+        <v>9051.892539999999</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>63234.90818999999</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>95893.93087000003</v>
+        <v>95893.93087000001</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>76411.40949000001</v>
+        <v>76411.40948999999</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>125845.88036</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>100178.941</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>1668511.75174</v>
@@ -2324,34 +2405,39 @@
         <v>4698680.36055</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>2782796.69355</v>
+        <v>2782833.523699999</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>10019260.17748</v>
+        <v>10019641.8269</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>9747001.73766</v>
+        <v>9752934.03782</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>16821062.14441</v>
+        <v>18296511.02732</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>20762864.35921</v>
+        <v>20767131.45302</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>21890227.76971999</v>
+        <v>21890227.76972</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>74325524.42385</v>
+        <v>74329714.97294</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>31418408.72414</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>31507696.87669001</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>56588971.499</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>90.80098</v>
@@ -2363,16 +2449,16 @@
         <v>105.9055</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>922.0594</v>
+        <v>922.0593999999999</v>
       </c>
       <c r="G41" s="48" t="n">
         <v>864.5740900000001</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>325.37846</v>
+        <v>397.6247</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>579.93449</v>
+        <v>660.55719</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>24419.63054</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>1302.19741</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>6648186.476</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>216.84628</v>
@@ -2425,14 +2516,19 @@
       <c r="M42" s="48" t="n">
         <v>18857.09851</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>8.355</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>2832434.812390001</v>
+        <v>2832434.81239</v>
       </c>
       <c r="D43" s="48" t="n">
         <v>1797831.74852</v>
@@ -2441,34 +2537,39 @@
         <v>2875818.07105</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>2638616.00706</v>
+        <v>2638620.09421</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>4266065.25764</v>
+        <v>4266441.7489</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>4182716.84641</v>
+        <v>4183471.86697</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>5679911.09801</v>
+        <v>5704148.06379</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>5573601.24165</v>
+        <v>5574279.2873</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>5598913.78497</v>
+        <v>5598913.784969999</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>7517455.807229999</v>
+        <v>7517460.7743</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>9352334.550330002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>9339285.199270001</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>8605821.999</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>2087726.65755</v>
@@ -2477,40 +2578,45 @@
         <v>2124737.67337</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>4431316.25105</v>
+        <v>4431316.251049999</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>2746044.09451</v>
+        <v>2746044.21451</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>5893080.580110001</v>
+        <v>5907015.45479</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>6301128.26531</v>
+        <v>6326167.03571</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>10283850.93353</v>
+        <v>11402806.6232</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>13868013.89234</v>
+        <v>13868933.14421</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>17996545.45483</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>41140947.7046</v>
+        <v>41141970.26517001</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>33740271.64054</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>33796713.74527</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>44561627.907</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>787770.3896600001</v>
+        <v>787770.38966</v>
       </c>
       <c r="D45" s="48" t="n">
         <v>1149131.22627</v>
@@ -2519,40 +2625,45 @@
         <v>2046223.36263</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>1451344.56183</v>
+        <v>1451344.68183</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>2569527.18002</v>
+        <v>2583462.0547</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>3404315.37731</v>
+        <v>3409867.31362</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>4969101.50615</v>
+        <v>5607244.09929</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>7708455.647130002</v>
+        <v>7708868.52112</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>9483903.31756</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>21337607.70252</v>
+        <v>21338630.26309</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>20310700.30782</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>20373080.97645</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>21678854.16</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>1299956.26789</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>975606.4470999999</v>
+        <v>975606.4471</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>2385092.88842</v>
@@ -2564,13 +2675,13 @@
         <v>3323553.40009</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>2896812.887999999</v>
+        <v>2916299.72209</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>5314749.42738</v>
+        <v>5795562.52391</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>6159558.245209999</v>
+        <v>6160064.62309</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>8512642.13727</v>
@@ -2579,55 +2690,65 @@
         <v>19803340.00208</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>13429571.33272</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>13423632.76882</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>22882773.747</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>5027432.65301</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>8943782.53483</v>
+        <v>8943782.534829998</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>2297205.98192</v>
+        <v>2297205.981919999</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>7762940.236059999</v>
+        <v>7763095.513239998</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-535797.21101</v>
+        <v>-576232.0084500001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-7527.292880000042</v>
+        <v>-95103.01648999992</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-4118134.96105</v>
+        <v>-3691312.31352</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>60836.84511000007</v>
+        <v>68191.85348999995</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>2633537.7912</v>
+        <v>2633537.791199999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-22563116.56762</v>
+        <v>-22568157.5991</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>19949703.69164</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>19950468.38099</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>8000531.097</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>2295674.274629999</v>
+        <v>2295674.27463</v>
       </c>
       <c r="D48" s="47" t="n">
         <v>3121150.8611</v>
@@ -2636,34 +2757,39 @@
         <v>11420445.58142</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>3195141.91554</v>
+        <v>3195145.03695</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>4837995.40064</v>
+        <v>4877080.83493</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>2149088.81053</v>
+        <v>2159776.57066</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>1611828.49911</v>
+        <v>1794969.53815</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>2747443.559949999</v>
+        <v>2747566.85708</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>2806312.26368</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>4268536.0881</v>
+        <v>4269332.275490001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>4726911.58443</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>4731547.534940001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>3925575.377</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>32741.78477</v>
@@ -2678,16 +2804,16 @@
         <v>333910.76892</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>742889.9397399999</v>
+        <v>743308.4096</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>97099.24636999999</v>
+        <v>97178.74653</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>110807.97269</v>
+        <v>114282.96709</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>76916.25463</v>
+        <v>76982.42263</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>133006.02935</v>
@@ -2696,13 +2822,18 @@
         <v>265204.8659</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>106576.99813</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>106577.46699</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>271787.179</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>2262932.48986</v>
@@ -2714,34 +2845,39 @@
         <v>11210054.8695</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>2861231.14662</v>
+        <v>2861234.26803</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>4095105.460900001</v>
+        <v>4133772.42533</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>2051989.56416</v>
+        <v>2062597.82413</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>1501020.52642</v>
+        <v>1680686.57106</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>2670527.305319999</v>
+        <v>2670584.43445</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>2673306.23433</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>4003331.2222</v>
+        <v>4004127.40959</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>4620334.586300001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>4624970.06795</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>3653788.198</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>3985734.88286</v>
@@ -2756,34 +2892,39 @@
         <v>4161951.37046</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>9710705.091639997</v>
+        <v>9828522.860100003</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>4529186.834420001</v>
+        <v>4770573.488679999</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>2136784.61302</v>
+        <v>3260081.391460001</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>3017676.33615</v>
+        <v>3019595.08199</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>4280370.068059999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>4547829.016030001</v>
+        <v>4555119.24189</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>4804434.185260001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>4828109.196870001</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>5422712.349</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>829236.7926799998</v>
+        <v>829236.79268</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>974838.5192100001</v>
@@ -2792,40 +2933,45 @@
         <v>751974.90368</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>865543.27295</v>
+        <v>865543.2729499999</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>568058.9350499999</v>
+        <v>610207.2494099999</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>802436.3890699999</v>
+        <v>807326.6598399999</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>342327.66945</v>
+        <v>1032138.01447</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>909988.1944000002</v>
+        <v>909988.1943999999</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>1200119.6181</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>681662.7394600001</v>
+        <v>687352.97374</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>824714.3227100001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>824931.356</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>1141492.124</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>773406.4360399998</v>
+        <v>773406.4360400001</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>626370.79184</v>
+        <v>626370.7918400002</v>
       </c>
       <c r="E53" s="48" t="n">
         <v>3108315.22862</v>
@@ -2834,31 +2980,36 @@
         <v>460748.44377</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>1207213.80505</v>
+        <v>1279932.71897</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>312491.4577399999</v>
+        <v>416182.71163</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>206254.29422</v>
+        <v>305301.71123</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>270298.64383</v>
+        <v>272053.0486</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>462040.33258</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>417114.81476</v>
+        <v>417114.90393</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>604416.2450200001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>604431.1793899999</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>548886.8100000001</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>2383091.65414</v>
@@ -2867,85 +3018,95 @@
         <v>3629367.26893</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>9363627.996930005</v>
+        <v>9363627.996929999</v>
       </c>
       <c r="F54" s="48" t="n">
         <v>2835659.65374</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>7935432.35154</v>
+        <v>7938382.891720001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>3414258.987609999</v>
+        <v>3547064.11721</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>1588202.64935</v>
+        <v>1922641.66576</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>1837389.49792</v>
+        <v>1837553.83899</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>2618210.11738</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>3449051.46181</v>
+        <v>3450651.36422</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>3375303.61753</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>3398746.66148</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>3732333.415</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>3337372.04478</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>6834356.815950001</v>
+        <v>6834356.815950002</v>
       </c>
       <c r="E55" s="47" t="n">
         <v>493733.4341100001</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>6796130.781140001</v>
+        <v>6796289.179729999</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-5408506.90201</v>
+        <v>-5527674.03362</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-2387625.31677</v>
+        <v>-2705899.93451</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-4643091.074959998</v>
+        <v>-5156424.16683</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-209395.9310900001</v>
+        <v>-203836.3714200001</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>1159479.98682</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-22842409.49555</v>
+        <v>-22853944.5655</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>19872181.09081</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>19853906.71906</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>6503394.125</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>472631.2745800001</v>
+        <v>472631.27458</v>
       </c>
       <c r="D56" s="47" t="n">
         <v>1333749.94894</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>939077.2097799998</v>
+        <v>939077.2097799999</v>
       </c>
       <c r="F56" s="47" t="n">
         <v>1249223.13048</v>
@@ -2954,64 +3115,72 @@
         <v>1752477.74873</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>1240864.91709</v>
+        <v>1240939.49779</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>1434003.34382</v>
+        <v>1436508.39075</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>1724916.56743</v>
+        <v>1725323.7827</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>1780701.21971</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>2265039.48954</v>
+        <v>2265118.631289999</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>3291531.42348</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>3292634.82123</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>4786543.054</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>2864740.7702</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>5500606.867009999</v>
+        <v>5500606.86701</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-445343.7756699999</v>
+        <v>-445343.7756700001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>5546907.65066</v>
+        <v>5547066.04925</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-7160984.650739999</v>
+        <v>-7280151.78235</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-3628490.23386</v>
+        <v>-3946839.4323</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-6077094.41878</v>
+        <v>-6592932.55758</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-1934312.49852</v>
+        <v>-1929160.15412</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-621221.2328900001</v>
+        <v>-621221.2328899999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-25107448.98509</v>
+        <v>-25119063.19679</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>16580649.66733</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>16561271.89783</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1716851.071</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>1752</v>
@@ -3041,31 +3213,34 @@
         <v>2413</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>2759</v>
+        <v>2760</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>3728</v>
+        <v>3735</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>5373</v>
+        <v>5395</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>8511</v>
+        <v>8600</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>9493</v>
+        <v>9624</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>9316</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>8696</v>
+        <v>8892</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>8093</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>8343</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>8119</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>